--- a/level-2/leetcode-phase-2-4/leetcode-phase-2-4.xlsx
+++ b/level-2/leetcode-phase-2-4/leetcode-phase-2-4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766CCF4-956D-4440-A7A6-D0239F72BC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE132DA-165F-42A2-8751-F52832153CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="198">
   <si>
     <t>Problem Link</t>
   </si>
@@ -504,6 +504,111 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-points-on-a-line/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-area-rectangle/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vowel-spellchecker/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/brick-wall/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/alphabet-board-path/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-repeated-subarray/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-number/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-authentication-manager/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-subarrays-with-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/bulls-and-cows/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/get-watched-videos-by-your-friends/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/powerful-integers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/analyze-user-website-visit-pattern/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/repeated-dna-sequences/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/prison-cells-after-n-days/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-distance-in-arrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-nice-pairs-in-an-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-where-square-of-number-is-equal-to-product-of-two-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/h-index/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/array-of-doubled-pairs/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/line-reflection/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/making-file-names-unique/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-sum-divisible-by-p/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-good-meals/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/avoid-flood-in-the-city/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-word-abbreviation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fraction-to-recurring-decimal/</t>
   </si>
 </sst>
 </file>
@@ -669,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,6 +839,9 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1275,7 +1383,7 @@
       <c r="A3" s="19"/>
       <c r="B3" s="15"/>
       <c r="C3" s="7" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C149)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="7" t="e">
@@ -1299,12 +1407,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>COUNTA(I4:I799)</f>
+        <f>COUNTA(I4:I834)</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>COUNTA(J4:J919)</f>
-        <v>146</v>
+        <f>COUNTA(J4:J954)</f>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4061,19 +4169,19 @@
         <v>16</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
-      <c r="H138" s="8">
-        <f t="shared" ref="H138" si="34">SUM(C138:G138)</f>
+      <c r="H138" s="23">
+        <f>SUM(C138:G138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4081,19 +4189,19 @@
         <v>16</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
-      <c r="H139" s="8">
-        <f t="shared" ref="H139" si="35">SUM(C139:G139)</f>
+      <c r="H139" s="23">
+        <f>SUM(C139:G139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4101,19 +4209,19 @@
         <v>16</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
-      <c r="H140" s="8">
-        <f t="shared" ref="H140" si="36">SUM(C140:G140)</f>
+      <c r="H140" s="23">
+        <f>SUM(C140:G140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4121,19 +4229,19 @@
         <v>16</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
-      <c r="H141" s="8">
-        <f t="shared" ref="H141" si="37">SUM(C141:G141)</f>
+      <c r="H141" s="23">
+        <f>SUM(C141:G141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4141,19 +4249,19 @@
         <v>16</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
-      <c r="H142" s="8">
-        <f t="shared" ref="H142" si="38">SUM(C142:G142)</f>
+      <c r="H142" s="23">
+        <f>SUM(C142:G142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4161,19 +4269,19 @@
         <v>16</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
-      <c r="H143" s="8">
-        <f t="shared" ref="H143" si="39">SUM(C143:G143)</f>
+      <c r="H143" s="23">
+        <f>SUM(C143:G143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4181,19 +4289,19 @@
         <v>16</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
-      <c r="H144" s="8">
-        <f t="shared" ref="H144" si="40">SUM(C144:G144)</f>
+      <c r="H144" s="23">
+        <f>SUM(C144:G144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4201,19 +4309,19 @@
         <v>16</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
-      <c r="H145" s="8">
-        <f t="shared" ref="H145" si="41">SUM(C145:G145)</f>
+      <c r="H145" s="23">
+        <f>SUM(C145:G145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4221,19 +4329,19 @@
         <v>16</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
-      <c r="H146" s="8">
-        <f t="shared" ref="H146" si="42">SUM(C146:G146)</f>
+      <c r="H146" s="23">
+        <f>SUM(C146:G146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4241,19 +4349,19 @@
         <v>16</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
-      <c r="H147" s="8">
-        <f t="shared" ref="H147" si="43">SUM(C147:G147)</f>
+      <c r="H147" s="23">
+        <f>SUM(C147:G147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4261,19 +4369,19 @@
         <v>16</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
-      <c r="H148" s="8">
-        <f t="shared" ref="H148:H149" si="44">SUM(C148:G148)</f>
+      <c r="H148" s="23">
+        <f>SUM(C148:G148)</f>
         <v>0</v>
       </c>
       <c r="J148" s="13" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4281,32 +4389,732 @@
         <v>16</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
-      <c r="H149" s="8">
+      <c r="H149" s="23">
+        <f>SUM(C149:G149)</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="23">
+        <f>SUM(C150:G150)</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="23">
+        <f>SUM(C151:G151)</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="23">
+        <f>SUM(C152:G152)</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="23">
+        <f>SUM(C153:G153)</f>
+        <v>0</v>
+      </c>
+      <c r="J153" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="23">
+        <f>SUM(C154:G154)</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="23">
+        <f>SUM(C155:G155)</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="23">
+        <f>SUM(C156:G156)</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="23">
+        <f>SUM(C157:G157)</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="23">
+        <f>SUM(C158:G158)</f>
+        <v>0</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="23">
+        <f>SUM(C159:G159)</f>
+        <v>0</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="23">
+        <f>SUM(C160:G160)</f>
+        <v>0</v>
+      </c>
+      <c r="J160" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="23">
+        <f>SUM(C161:G161)</f>
+        <v>0</v>
+      </c>
+      <c r="J161" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="23">
+        <f>SUM(C162:G162)</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="23">
+        <f>SUM(C163:G163)</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="23">
+        <f>SUM(C164:G164)</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="23">
+        <f>SUM(C165:G165)</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="23">
+        <f>SUM(C166:G166)</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="23">
+        <f>SUM(C167:G167)</f>
+        <v>0</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="23">
+        <f>SUM(C168:G168)</f>
+        <v>0</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="23">
+        <f>SUM(C169:G169)</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="23">
+        <f>SUM(C170:G170)</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="23">
+        <f>SUM(C171:G171)</f>
+        <v>0</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="23">
+        <f>SUM(C172:G172)</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="8">
+        <f t="shared" ref="H173" si="34">SUM(C173:G173)</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="8">
+        <f t="shared" ref="H174" si="35">SUM(C174:G174)</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="8">
+        <f t="shared" ref="H175" si="36">SUM(C175:G175)</f>
+        <v>0</v>
+      </c>
+      <c r="J175" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="8">
+        <f t="shared" ref="H176" si="37">SUM(C176:G176)</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="8">
+        <f t="shared" ref="H177" si="38">SUM(C177:G177)</f>
+        <v>0</v>
+      </c>
+      <c r="J177" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="8">
+        <f t="shared" ref="H178" si="39">SUM(C178:G178)</f>
+        <v>0</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="8">
+        <f t="shared" ref="H179" si="40">SUM(C179:G179)</f>
+        <v>0</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="8">
+        <f t="shared" ref="H180" si="41">SUM(C180:G180)</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="8">
+        <f t="shared" ref="H181" si="42">SUM(C181:G181)</f>
+        <v>0</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="8">
+        <f t="shared" ref="H182" si="43">SUM(C182:G182)</f>
+        <v>0</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="8">
+        <f t="shared" ref="H183:H184" si="44">SUM(C183:G183)</f>
+        <v>0</v>
+      </c>
+      <c r="J183" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="8">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="J149" s="13" t="s">
+      <c r="J184" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J150" s="13"/>
-    </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J151" s="13"/>
-    </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J152" s="13"/>
-    </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J153" s="13"/>
+    <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J185" s="13"/>
+    </row>
+    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J186" s="13"/>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J188" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
